--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema3b-Nrp2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema3b-Nrp2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.71661913898478</v>
+        <v>1.842080666666667</v>
       </c>
       <c r="H2">
-        <v>1.71661913898478</v>
+        <v>5.526242</v>
       </c>
       <c r="I2">
-        <v>0.1269207092210849</v>
+        <v>0.1262299803130056</v>
       </c>
       <c r="J2">
-        <v>0.1269207092210849</v>
+        <v>0.1502126669235156</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>38.5748360580934</v>
+        <v>44.13164066666667</v>
       </c>
       <c r="N2">
-        <v>38.5748360580934</v>
+        <v>132.394922</v>
       </c>
       <c r="O2">
-        <v>0.422752321903902</v>
+        <v>0.4415399811720331</v>
       </c>
       <c r="P2">
-        <v>0.422752321903902</v>
+        <v>0.4562856844211927</v>
       </c>
       <c r="Q2">
-        <v>66.21830186052334</v>
+        <v>81.29404206034712</v>
       </c>
       <c r="R2">
-        <v>66.21830186052334</v>
+        <v>731.646378543124</v>
       </c>
       <c r="S2">
-        <v>0.05365602452090364</v>
+        <v>0.0557355831307506</v>
       </c>
       <c r="T2">
-        <v>0.05365602452090364</v>
+        <v>0.06853988953592899</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.71661913898478</v>
+        <v>1.842080666666667</v>
       </c>
       <c r="H3">
-        <v>1.71661913898478</v>
+        <v>5.526242</v>
       </c>
       <c r="I3">
-        <v>0.1269207092210849</v>
+        <v>0.1262299803130056</v>
       </c>
       <c r="J3">
-        <v>0.1269207092210849</v>
+        <v>0.1502126669235156</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.6183485788859</v>
+        <v>14.93259333333333</v>
       </c>
       <c r="N3">
-        <v>13.6183485788859</v>
+        <v>44.79778</v>
       </c>
       <c r="O3">
-        <v>0.1492472572936004</v>
+        <v>0.1494015830739255</v>
       </c>
       <c r="P3">
-        <v>0.1492472572936004</v>
+        <v>0.1543910098595022</v>
       </c>
       <c r="Q3">
-        <v>23.37751781188172</v>
+        <v>27.50704148252889</v>
       </c>
       <c r="R3">
-        <v>23.37751781188172</v>
+        <v>247.56337334276</v>
       </c>
       <c r="S3">
-        <v>0.0189425677450055</v>
+        <v>0.01885895889015348</v>
       </c>
       <c r="T3">
-        <v>0.0189425677450055</v>
+        <v>0.02319148534001062</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.71661913898478</v>
+        <v>1.842080666666667</v>
       </c>
       <c r="H4">
-        <v>1.71661913898478</v>
+        <v>5.526242</v>
       </c>
       <c r="I4">
-        <v>0.1269207092210849</v>
+        <v>0.1262299803130056</v>
       </c>
       <c r="J4">
-        <v>0.1269207092210849</v>
+        <v>0.1502126669235156</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.7092568522669</v>
+        <v>13.61024133333333</v>
       </c>
       <c r="N4">
-        <v>12.7092568522669</v>
+        <v>40.830724</v>
       </c>
       <c r="O4">
-        <v>0.1392842690472466</v>
+        <v>0.1361713639304118</v>
       </c>
       <c r="P4">
-        <v>0.1392842690472466</v>
+        <v>0.1407189532975654</v>
       </c>
       <c r="Q4">
-        <v>21.81695355487482</v>
+        <v>25.07116242880089</v>
       </c>
       <c r="R4">
-        <v>21.81695355487482</v>
+        <v>225.640461859208</v>
       </c>
       <c r="S4">
-        <v>0.01767805821081694</v>
+        <v>0.01718890858813099</v>
       </c>
       <c r="T4">
-        <v>0.01767805821081694</v>
+        <v>0.02113776926151295</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.71661913898478</v>
+        <v>1.842080666666667</v>
       </c>
       <c r="H5">
-        <v>1.71661913898478</v>
+        <v>5.526242</v>
       </c>
       <c r="I5">
-        <v>0.1269207092210849</v>
+        <v>0.1262299803130056</v>
       </c>
       <c r="J5">
-        <v>0.1269207092210849</v>
+        <v>0.1502126669235156</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0998443410514</v>
+        <v>17.584752</v>
       </c>
       <c r="N5">
-        <v>17.0998443410514</v>
+        <v>52.754256</v>
       </c>
       <c r="O5">
-        <v>0.1874019344758319</v>
+        <v>0.1759366057935712</v>
       </c>
       <c r="P5">
-        <v>0.1874019344758319</v>
+        <v>0.1818121982434553</v>
       </c>
       <c r="Q5">
-        <v>29.35392006950942</v>
+        <v>32.392531687328</v>
       </c>
       <c r="R5">
-        <v>29.35392006950942</v>
+        <v>291.532785185952</v>
       </c>
       <c r="S5">
-        <v>0.02378518643307587</v>
+        <v>0.02220847428565952</v>
       </c>
       <c r="T5">
-        <v>0.02378518643307587</v>
+        <v>0.02731049517737635</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.71661913898478</v>
+        <v>1.842080666666667</v>
       </c>
       <c r="H6">
-        <v>1.71661913898478</v>
+        <v>5.526242</v>
       </c>
       <c r="I6">
-        <v>0.1269207092210849</v>
+        <v>0.1262299803130056</v>
       </c>
       <c r="J6">
-        <v>0.1269207092210849</v>
+        <v>0.1502126669235156</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.24460758561141</v>
+        <v>9.690137500000001</v>
       </c>
       <c r="N6">
-        <v>9.24460758561141</v>
+        <v>19.380275</v>
       </c>
       <c r="O6">
-        <v>0.1013142172794192</v>
+        <v>0.09695046603005844</v>
       </c>
       <c r="P6">
-        <v>0.1013142172794192</v>
+        <v>0.06679215417828435</v>
       </c>
       <c r="Q6">
-        <v>15.86947031386443</v>
+        <v>17.85001494609167</v>
       </c>
       <c r="R6">
-        <v>15.86947031386443</v>
+        <v>107.10008967655</v>
       </c>
       <c r="S6">
-        <v>0.01285887231128298</v>
+        <v>0.01223805541831099</v>
       </c>
       <c r="T6">
-        <v>0.01285887231128298</v>
+        <v>0.01003302760868673</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.70678710749359</v>
+        <v>4.241638</v>
       </c>
       <c r="H7">
-        <v>3.70678710749359</v>
+        <v>12.724914</v>
       </c>
       <c r="I7">
-        <v>0.2740666452623255</v>
+        <v>0.2906614736930972</v>
       </c>
       <c r="J7">
-        <v>0.2740666452623255</v>
+        <v>0.3458848288425265</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>38.5748360580934</v>
+        <v>44.13164066666667</v>
       </c>
       <c r="N7">
-        <v>38.5748360580934</v>
+        <v>132.394922</v>
       </c>
       <c r="O7">
-        <v>0.422752321903902</v>
+        <v>0.4415399811720331</v>
       </c>
       <c r="P7">
-        <v>0.422752321903902</v>
+        <v>0.4562856844211927</v>
       </c>
       <c r="Q7">
-        <v>142.9887049738195</v>
+        <v>187.1904440540787</v>
       </c>
       <c r="R7">
-        <v>142.9887049738195</v>
+        <v>1684.713996486708</v>
       </c>
       <c r="S7">
-        <v>0.1158623106410611</v>
+        <v>0.1283386616218856</v>
       </c>
       <c r="T7">
-        <v>0.1158623106410611</v>
+        <v>0.1578222958593193</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.70678710749359</v>
+        <v>4.241638</v>
       </c>
       <c r="H8">
-        <v>3.70678710749359</v>
+        <v>12.724914</v>
       </c>
       <c r="I8">
-        <v>0.2740666452623255</v>
+        <v>0.2906614736930972</v>
       </c>
       <c r="J8">
-        <v>0.2740666452623255</v>
+        <v>0.3458848288425265</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.6183485788859</v>
+        <v>14.93259333333333</v>
       </c>
       <c r="N8">
-        <v>13.6183485788859</v>
+        <v>44.79778</v>
       </c>
       <c r="O8">
-        <v>0.1492472572936004</v>
+        <v>0.1494015830739255</v>
       </c>
       <c r="P8">
-        <v>0.1492472572936004</v>
+        <v>0.1543910098595022</v>
       </c>
       <c r="Q8">
-        <v>50.48031893756791</v>
+        <v>63.33865532121334</v>
       </c>
       <c r="R8">
-        <v>50.48031893756791</v>
+        <v>570.04789789092</v>
       </c>
       <c r="S8">
-        <v>0.04090369512106019</v>
+        <v>0.04342528430834888</v>
       </c>
       <c r="T8">
-        <v>0.04090369512106019</v>
+        <v>0.05340150802007872</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.70678710749359</v>
+        <v>4.241638</v>
       </c>
       <c r="H9">
-        <v>3.70678710749359</v>
+        <v>12.724914</v>
       </c>
       <c r="I9">
-        <v>0.2740666452623255</v>
+        <v>0.2906614736930972</v>
       </c>
       <c r="J9">
-        <v>0.2740666452623255</v>
+        <v>0.3458848288425265</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.7092568522669</v>
+        <v>13.61024133333333</v>
       </c>
       <c r="N9">
-        <v>12.7092568522669</v>
+        <v>40.830724</v>
       </c>
       <c r="O9">
-        <v>0.1392842690472466</v>
+        <v>0.1361713639304118</v>
       </c>
       <c r="P9">
-        <v>0.1392842690472466</v>
+        <v>0.1407189532975654</v>
       </c>
       <c r="Q9">
-        <v>47.11050944580751</v>
+        <v>57.72971682863733</v>
       </c>
       <c r="R9">
-        <v>47.11050944580751</v>
+        <v>519.567451457736</v>
       </c>
       <c r="S9">
-        <v>0.03817317235559402</v>
+        <v>0.03957976931481255</v>
       </c>
       <c r="T9">
-        <v>0.03817317235559402</v>
+        <v>0.04867255107622789</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.70678710749359</v>
+        <v>4.241638</v>
       </c>
       <c r="H10">
-        <v>3.70678710749359</v>
+        <v>12.724914</v>
       </c>
       <c r="I10">
-        <v>0.2740666452623255</v>
+        <v>0.2906614736930972</v>
       </c>
       <c r="J10">
-        <v>0.2740666452623255</v>
+        <v>0.3458848288425265</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.0998443410514</v>
+        <v>17.584752</v>
       </c>
       <c r="N10">
-        <v>17.0998443410514</v>
+        <v>52.754256</v>
       </c>
       <c r="O10">
-        <v>0.1874019344758319</v>
+        <v>0.1759366057935712</v>
       </c>
       <c r="P10">
-        <v>0.1874019344758319</v>
+        <v>0.1818121982434553</v>
       </c>
       <c r="Q10">
-        <v>63.38548254355656</v>
+        <v>74.588152303776</v>
       </c>
       <c r="R10">
-        <v>63.38548254355656</v>
+        <v>671.293370733984</v>
       </c>
       <c r="S10">
-        <v>0.05136061949746139</v>
+        <v>0.05113799311652092</v>
       </c>
       <c r="T10">
-        <v>0.05136061949746139</v>
+        <v>0.06288608107092104</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.70678710749359</v>
+        <v>4.241638</v>
       </c>
       <c r="H11">
-        <v>3.70678710749359</v>
+        <v>12.724914</v>
       </c>
       <c r="I11">
-        <v>0.2740666452623255</v>
+        <v>0.2906614736930972</v>
       </c>
       <c r="J11">
-        <v>0.2740666452623255</v>
+        <v>0.3458848288425265</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.24460758561141</v>
+        <v>9.690137500000001</v>
       </c>
       <c r="N11">
-        <v>9.24460758561141</v>
+        <v>19.380275</v>
       </c>
       <c r="O11">
-        <v>0.1013142172794192</v>
+        <v>0.09695046603005844</v>
       </c>
       <c r="P11">
-        <v>0.1013142172794192</v>
+        <v>0.06679215417828435</v>
       </c>
       <c r="Q11">
-        <v>34.26779221218182</v>
+        <v>41.10205544522501</v>
       </c>
       <c r="R11">
-        <v>34.26779221218182</v>
+        <v>246.61233267135</v>
       </c>
       <c r="S11">
-        <v>0.02776684764714875</v>
+        <v>0.02817976533152935</v>
       </c>
       <c r="T11">
-        <v>0.02776684764714875</v>
+        <v>0.02310239281597952</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.544399352654985</v>
+        <v>0.6198420000000001</v>
       </c>
       <c r="H12">
-        <v>0.544399352654985</v>
+        <v>1.859526</v>
       </c>
       <c r="I12">
-        <v>0.0402509504696154</v>
+        <v>0.04247514502106894</v>
       </c>
       <c r="J12">
-        <v>0.0402509504696154</v>
+        <v>0.05054508283814161</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>38.5748360580934</v>
+        <v>44.13164066666667</v>
       </c>
       <c r="N12">
-        <v>38.5748360580934</v>
+        <v>132.394922</v>
       </c>
       <c r="O12">
-        <v>0.422752321903902</v>
+        <v>0.4415399811720331</v>
       </c>
       <c r="P12">
-        <v>0.422752321903902</v>
+        <v>0.4562856844211927</v>
       </c>
       <c r="Q12">
-        <v>21.00011577879822</v>
+        <v>27.35464441410801</v>
       </c>
       <c r="R12">
-        <v>21.00011577879822</v>
+        <v>246.1917997269721</v>
       </c>
       <c r="S12">
-        <v>0.01701618276986886</v>
+        <v>0.01875447473288215</v>
       </c>
       <c r="T12">
-        <v>0.01701618276986886</v>
+        <v>0.02306299771692732</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.544399352654985</v>
+        <v>0.6198420000000001</v>
       </c>
       <c r="H13">
-        <v>0.544399352654985</v>
+        <v>1.859526</v>
       </c>
       <c r="I13">
-        <v>0.0402509504696154</v>
+        <v>0.04247514502106894</v>
       </c>
       <c r="J13">
-        <v>0.0402509504696154</v>
+        <v>0.05054508283814161</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.6183485788859</v>
+        <v>14.93259333333333</v>
       </c>
       <c r="N13">
-        <v>13.6183485788859</v>
+        <v>44.79778</v>
       </c>
       <c r="O13">
-        <v>0.1492472572936004</v>
+        <v>0.1494015830739255</v>
       </c>
       <c r="P13">
-        <v>0.1492472572936004</v>
+        <v>0.1543910098595022</v>
       </c>
       <c r="Q13">
-        <v>7.413820150575418</v>
+        <v>9.255848516920002</v>
       </c>
       <c r="R13">
-        <v>7.413820150575418</v>
+        <v>83.30263665228001</v>
       </c>
       <c r="S13">
-        <v>0.006007343961050653</v>
+        <v>0.006345853907442263</v>
       </c>
       <c r="T13">
-        <v>0.006007343961050653</v>
+        <v>0.007803706382812875</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.544399352654985</v>
+        <v>0.6198420000000001</v>
       </c>
       <c r="H14">
-        <v>0.544399352654985</v>
+        <v>1.859526</v>
       </c>
       <c r="I14">
-        <v>0.0402509504696154</v>
+        <v>0.04247514502106894</v>
       </c>
       <c r="J14">
-        <v>0.0402509504696154</v>
+        <v>0.05054508283814161</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.7092568522669</v>
+        <v>13.61024133333333</v>
       </c>
       <c r="N14">
-        <v>12.7092568522669</v>
+        <v>40.830724</v>
       </c>
       <c r="O14">
-        <v>0.1392842690472466</v>
+        <v>0.1361713639304118</v>
       </c>
       <c r="P14">
-        <v>0.1392842690472466</v>
+        <v>0.1407189532975654</v>
       </c>
       <c r="Q14">
-        <v>6.918911203100032</v>
+        <v>8.436199208536001</v>
       </c>
       <c r="R14">
-        <v>6.918911203100032</v>
+        <v>75.925792876824</v>
       </c>
       <c r="S14">
-        <v>0.005606324214617306</v>
+        <v>0.005783898430660996</v>
       </c>
       <c r="T14">
-        <v>0.005606324214617306</v>
+        <v>0.007112651151322025</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.544399352654985</v>
+        <v>0.6198420000000001</v>
       </c>
       <c r="H15">
-        <v>0.544399352654985</v>
+        <v>1.859526</v>
       </c>
       <c r="I15">
-        <v>0.0402509504696154</v>
+        <v>0.04247514502106894</v>
       </c>
       <c r="J15">
-        <v>0.0402509504696154</v>
+        <v>0.05054508283814161</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.0998443410514</v>
+        <v>17.584752</v>
       </c>
       <c r="N15">
-        <v>17.0998443410514</v>
+        <v>52.754256</v>
       </c>
       <c r="O15">
-        <v>0.1874019344758319</v>
+        <v>0.1759366057935712</v>
       </c>
       <c r="P15">
-        <v>0.1874019344758319</v>
+        <v>0.1818121982434553</v>
       </c>
       <c r="Q15">
-        <v>9.309144189769391</v>
+        <v>10.899767849184</v>
       </c>
       <c r="R15">
-        <v>9.309144189769391</v>
+        <v>98.097910642656</v>
       </c>
       <c r="S15">
-        <v>0.00754310598249682</v>
+        <v>0.007472932845596575</v>
       </c>
       <c r="T15">
-        <v>0.00754310598249682</v>
+        <v>0.009189712621200075</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.544399352654985</v>
+        <v>0.6198420000000001</v>
       </c>
       <c r="H16">
-        <v>0.544399352654985</v>
+        <v>1.859526</v>
       </c>
       <c r="I16">
-        <v>0.0402509504696154</v>
+        <v>0.04247514502106894</v>
       </c>
       <c r="J16">
-        <v>0.0402509504696154</v>
+        <v>0.05054508283814161</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.24460758561141</v>
+        <v>9.690137500000001</v>
       </c>
       <c r="N16">
-        <v>9.24460758561141</v>
+        <v>19.380275</v>
       </c>
       <c r="O16">
-        <v>0.1013142172794192</v>
+        <v>0.09695046603005844</v>
       </c>
       <c r="P16">
-        <v>0.1013142172794192</v>
+        <v>0.06679215417828435</v>
       </c>
       <c r="Q16">
-        <v>5.032758385156215</v>
+        <v>6.006354208275002</v>
       </c>
       <c r="R16">
-        <v>5.032758385156215</v>
+        <v>36.03812524965001</v>
       </c>
       <c r="S16">
-        <v>0.004077993541581755</v>
+        <v>0.00411798510448695</v>
       </c>
       <c r="T16">
-        <v>0.004077993541581755</v>
+        <v>0.003376014965879309</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8739757809733359</v>
+        <v>0.8997893333333332</v>
       </c>
       <c r="H17">
-        <v>0.8739757809733359</v>
+        <v>2.699368</v>
       </c>
       <c r="I17">
-        <v>0.06461865852712648</v>
+        <v>0.06165874920019015</v>
       </c>
       <c r="J17">
-        <v>0.06461865852712648</v>
+        <v>0.07337341837147134</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>38.5748360580934</v>
+        <v>44.13164066666667</v>
       </c>
       <c r="N17">
-        <v>38.5748360580934</v>
+        <v>132.394922</v>
       </c>
       <c r="O17">
-        <v>0.422752321903902</v>
+        <v>0.4415399811720331</v>
       </c>
       <c r="P17">
-        <v>0.422752321903902</v>
+        <v>0.4562856844211927</v>
       </c>
       <c r="Q17">
-        <v>33.71347246979058</v>
+        <v>39.70917953436622</v>
       </c>
       <c r="R17">
-        <v>33.71347246979058</v>
+        <v>357.382615809296</v>
       </c>
       <c r="S17">
-        <v>0.02731768793065809</v>
+        <v>0.02722480296094307</v>
       </c>
       <c r="T17">
-        <v>0.02731768793065809</v>
+        <v>0.03347924041994931</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.8739757809733359</v>
+        <v>0.8997893333333332</v>
       </c>
       <c r="H18">
-        <v>0.8739757809733359</v>
+        <v>2.699368</v>
       </c>
       <c r="I18">
-        <v>0.06461865852712648</v>
+        <v>0.06165874920019015</v>
       </c>
       <c r="J18">
-        <v>0.06461865852712648</v>
+        <v>0.07337341837147134</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>13.6183485788859</v>
+        <v>14.93259333333333</v>
       </c>
       <c r="N18">
-        <v>13.6183485788859</v>
+        <v>44.79778</v>
       </c>
       <c r="O18">
-        <v>0.1492472572936004</v>
+        <v>0.1494015830739255</v>
       </c>
       <c r="P18">
-        <v>0.1492472572936004</v>
+        <v>0.1543910098595022</v>
       </c>
       <c r="Q18">
-        <v>11.90210683479892</v>
+        <v>13.43618820033778</v>
       </c>
       <c r="R18">
-        <v>11.90210683479892</v>
+        <v>120.92569380304</v>
       </c>
       <c r="S18">
-        <v>0.009644157555165348</v>
+        <v>0.009211914740866545</v>
       </c>
       <c r="T18">
-        <v>0.009644157555165348</v>
+        <v>0.01132819615921521</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.8739757809733359</v>
+        <v>0.8997893333333332</v>
       </c>
       <c r="H19">
-        <v>0.8739757809733359</v>
+        <v>2.699368</v>
       </c>
       <c r="I19">
-        <v>0.06461865852712648</v>
+        <v>0.06165874920019015</v>
       </c>
       <c r="J19">
-        <v>0.06461865852712648</v>
+        <v>0.07337341837147134</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.7092568522669</v>
+        <v>13.61024133333333</v>
       </c>
       <c r="N19">
-        <v>12.7092568522669</v>
+        <v>40.830724</v>
       </c>
       <c r="O19">
-        <v>0.1392842690472466</v>
+        <v>0.1361713639304118</v>
       </c>
       <c r="P19">
-        <v>0.1392842690472466</v>
+        <v>0.1407189532975654</v>
       </c>
       <c r="Q19">
-        <v>11.10758268305069</v>
+        <v>12.24634997582578</v>
       </c>
       <c r="R19">
-        <v>11.10758268305069</v>
+        <v>110.217149782432</v>
       </c>
       <c r="S19">
-        <v>0.009000362619764437</v>
+        <v>0.008396155976833079</v>
       </c>
       <c r="T19">
-        <v>0.009000362619764437</v>
+        <v>0.0103250306330978</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8739757809733359</v>
+        <v>0.8997893333333332</v>
       </c>
       <c r="H20">
-        <v>0.8739757809733359</v>
+        <v>2.699368</v>
       </c>
       <c r="I20">
-        <v>0.06461865852712648</v>
+        <v>0.06165874920019015</v>
       </c>
       <c r="J20">
-        <v>0.06461865852712648</v>
+        <v>0.07337341837147134</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.0998443410514</v>
+        <v>17.584752</v>
       </c>
       <c r="N20">
-        <v>17.0998443410514</v>
+        <v>52.754256</v>
       </c>
       <c r="O20">
-        <v>0.1874019344758319</v>
+        <v>0.1759366057935712</v>
       </c>
       <c r="P20">
-        <v>0.1874019344758319</v>
+        <v>0.1818121982434553</v>
       </c>
       <c r="Q20">
-        <v>14.94484981249288</v>
+        <v>15.822572278912</v>
       </c>
       <c r="R20">
-        <v>14.94484981249288</v>
+        <v>142.403150510208</v>
       </c>
       <c r="S20">
-        <v>0.01210966161121671</v>
+        <v>0.01084803105175853</v>
       </c>
       <c r="T20">
-        <v>0.01210966161121671</v>
+        <v>0.01334018248675393</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8739757809733359</v>
+        <v>0.8997893333333332</v>
       </c>
       <c r="H21">
-        <v>0.8739757809733359</v>
+        <v>2.699368</v>
       </c>
       <c r="I21">
-        <v>0.06461865852712648</v>
+        <v>0.06165874920019015</v>
       </c>
       <c r="J21">
-        <v>0.06461865852712648</v>
+        <v>0.07337341837147134</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>9.24460758561141</v>
+        <v>9.690137500000001</v>
       </c>
       <c r="N21">
-        <v>9.24460758561141</v>
+        <v>19.380275</v>
       </c>
       <c r="O21">
-        <v>0.1013142172794192</v>
+        <v>0.09695046603005844</v>
       </c>
       <c r="P21">
-        <v>0.1013142172794192</v>
+        <v>0.06679215417828435</v>
       </c>
       <c r="Q21">
-        <v>8.079563134426758</v>
+        <v>8.719082361033333</v>
       </c>
       <c r="R21">
-        <v>8.079563134426758</v>
+        <v>52.3144941662</v>
       </c>
       <c r="S21">
-        <v>0.006546788810321886</v>
+        <v>0.005977844469788928</v>
       </c>
       <c r="T21">
-        <v>0.006546788810321886</v>
+        <v>0.004900768672455075</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.68334899081314</v>
+        <v>6.989701999999999</v>
       </c>
       <c r="H22">
-        <v>6.68334899081314</v>
+        <v>13.979404</v>
       </c>
       <c r="I22">
-        <v>0.4941430365198478</v>
+        <v>0.478974651772638</v>
       </c>
       <c r="J22">
-        <v>0.4941430365198478</v>
+        <v>0.3799840030243449</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>38.5748360580934</v>
+        <v>44.13164066666667</v>
       </c>
       <c r="N22">
-        <v>38.5748360580934</v>
+        <v>132.394922</v>
       </c>
       <c r="O22">
-        <v>0.422752321903902</v>
+        <v>0.4415399811720331</v>
       </c>
       <c r="P22">
-        <v>0.422752321903902</v>
+        <v>0.4562856844211927</v>
       </c>
       <c r="Q22">
-        <v>257.8090916396409</v>
+        <v>308.4670170310814</v>
       </c>
       <c r="R22">
-        <v>257.8090916396409</v>
+        <v>1850.802102186488</v>
       </c>
       <c r="S22">
-        <v>0.2089001160414103</v>
+        <v>0.2114864587255717</v>
       </c>
       <c r="T22">
-        <v>0.2089001160414103</v>
+        <v>0.1733812608890678</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.68334899081314</v>
+        <v>6.989701999999999</v>
       </c>
       <c r="H23">
-        <v>6.68334899081314</v>
+        <v>13.979404</v>
       </c>
       <c r="I23">
-        <v>0.4941430365198478</v>
+        <v>0.478974651772638</v>
       </c>
       <c r="J23">
-        <v>0.4941430365198478</v>
+        <v>0.3799840030243449</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>13.6183485788859</v>
+        <v>14.93259333333333</v>
       </c>
       <c r="N23">
-        <v>13.6183485788859</v>
+        <v>44.79778</v>
       </c>
       <c r="O23">
-        <v>0.1492472572936004</v>
+        <v>0.1494015830739255</v>
       </c>
       <c r="P23">
-        <v>0.1492472572936004</v>
+        <v>0.1543910098595022</v>
       </c>
       <c r="Q23">
-        <v>91.01617623123863</v>
+        <v>104.3743774871867</v>
       </c>
       <c r="R23">
-        <v>91.01617623123863</v>
+        <v>626.24626492312</v>
       </c>
       <c r="S23">
-        <v>0.07374949291131869</v>
+        <v>0.07155957122711432</v>
       </c>
       <c r="T23">
-        <v>0.07374949291131869</v>
+        <v>0.05866611395738474</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.68334899081314</v>
+        <v>6.989701999999999</v>
       </c>
       <c r="H24">
-        <v>6.68334899081314</v>
+        <v>13.979404</v>
       </c>
       <c r="I24">
-        <v>0.4941430365198478</v>
+        <v>0.478974651772638</v>
       </c>
       <c r="J24">
-        <v>0.4941430365198478</v>
+        <v>0.3799840030243449</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>12.7092568522669</v>
+        <v>13.61024133333333</v>
       </c>
       <c r="N24">
-        <v>12.7092568522669</v>
+        <v>40.830724</v>
       </c>
       <c r="O24">
-        <v>0.1392842690472466</v>
+        <v>0.1361713639304118</v>
       </c>
       <c r="P24">
-        <v>0.1392842690472466</v>
+        <v>0.1407189532975654</v>
       </c>
       <c r="Q24">
-        <v>84.94039895758297</v>
+        <v>95.13153106808265</v>
       </c>
       <c r="R24">
-        <v>84.94039895758297</v>
+        <v>570.7891864084959</v>
       </c>
       <c r="S24">
-        <v>0.06882635164645386</v>
+        <v>0.06522263161997414</v>
       </c>
       <c r="T24">
-        <v>0.06882635164645386</v>
+        <v>0.05347095117540476</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.68334899081314</v>
+        <v>6.989701999999999</v>
       </c>
       <c r="H25">
-        <v>6.68334899081314</v>
+        <v>13.979404</v>
       </c>
       <c r="I25">
-        <v>0.4941430365198478</v>
+        <v>0.478974651772638</v>
       </c>
       <c r="J25">
-        <v>0.4941430365198478</v>
+        <v>0.3799840030243449</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.0998443410514</v>
+        <v>17.584752</v>
       </c>
       <c r="N25">
-        <v>17.0998443410514</v>
+        <v>52.754256</v>
       </c>
       <c r="O25">
-        <v>0.1874019344758319</v>
+        <v>0.1759366057935712</v>
       </c>
       <c r="P25">
-        <v>0.1874019344758319</v>
+        <v>0.1818121982434553</v>
       </c>
       <c r="Q25">
-        <v>114.2842274198277</v>
+        <v>122.912176223904</v>
       </c>
       <c r="R25">
-        <v>114.2842274198277</v>
+        <v>737.4730573434239</v>
       </c>
       <c r="S25">
-        <v>0.09260336095158114</v>
+        <v>0.08426917449403568</v>
       </c>
       <c r="T25">
-        <v>0.09260336095158114</v>
+        <v>0.06908572688720394</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.68334899081314</v>
+        <v>6.989701999999999</v>
       </c>
       <c r="H26">
-        <v>6.68334899081314</v>
+        <v>13.979404</v>
       </c>
       <c r="I26">
-        <v>0.4941430365198478</v>
+        <v>0.478974651772638</v>
       </c>
       <c r="J26">
-        <v>0.4941430365198478</v>
+        <v>0.3799840030243449</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>9.24460758561141</v>
+        <v>9.690137500000001</v>
       </c>
       <c r="N26">
-        <v>9.24460758561141</v>
+        <v>19.380275</v>
       </c>
       <c r="O26">
-        <v>0.1013142172794192</v>
+        <v>0.09695046603005844</v>
       </c>
       <c r="P26">
-        <v>0.1013142172794192</v>
+        <v>0.06679215417828435</v>
       </c>
       <c r="Q26">
-        <v>61.78493877775951</v>
+        <v>67.73117346402499</v>
       </c>
       <c r="R26">
-        <v>61.78493877775951</v>
+        <v>270.9246938561</v>
       </c>
       <c r="S26">
-        <v>0.05006371496908384</v>
+        <v>0.04643681570594221</v>
       </c>
       <c r="T26">
-        <v>0.05006371496908384</v>
+        <v>0.02537995011528371</v>
       </c>
     </row>
   </sheetData>
